--- a/data/unchecked/manual_collect/japan/JapanCaseStatistics20200216.xlsx
+++ b/data/unchecked/manual_collect/japan/JapanCaseStatistics20200216.xlsx
@@ -10284,7 +10284,7 @@
     <t>新型コロナウイルス感染症患者の発生について</t>
   </si>
   <si>
-    <t>https://www.mhlw.go.jp/content/10906000/000596299.pdf</t>
+    <t>https://www.mhlw.go.jp/stf/newpage_09548.html</t>
   </si>
 </sst>
 </file>
@@ -10732,8 +10732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10914,13 +10914,13 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12">

--- a/data/unchecked/manual_collect/japan/JapanCaseStatistics20200216.xlsx
+++ b/data/unchecked/manual_collect/japan/JapanCaseStatistics20200216.xlsx
@@ -10722,7 +10722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10732,8 +10732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10920,7 +10920,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12">
